--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mn/github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A287490-0BB2-5344-B12F-DF48D03DA965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29FD112-B361-674D-B0E7-54E43FA25DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{FB5A3823-9E24-1A44-A648-032B2308EC34}"/>
+    <workbookView xWindow="8140" yWindow="6680" windowWidth="22800" windowHeight="12320" xr2:uid="{FB5A3823-9E24-1A44-A648-032B2308EC34}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>TUKI</t>
   </si>
@@ -91,6 +91,26 @@
   </si>
   <si>
     <t>HIDUKE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020.01.02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020.01.03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -465,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106B6102-85FB-E144-868C-B4E634643DE8}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -653,8 +673,89 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>202001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>202001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>202002</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>202002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mn/github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29FD112-B361-674D-B0E7-54E43FA25DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2C5925-39B6-3945-A24B-28AD35F20B3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8140" yWindow="6680" windowWidth="22800" windowHeight="12320" xr2:uid="{FB5A3823-9E24-1A44-A648-032B2308EC34}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>TUKI</t>
   </si>
@@ -57,28 +57,16 @@
     <t>A</t>
   </si>
   <si>
-    <t>月</t>
-  </si>
-  <si>
     <t>2020.01.02</t>
   </si>
   <si>
-    <t>火</t>
-  </si>
-  <si>
     <t>2020.02.01</t>
   </si>
   <si>
     <t>A-2</t>
   </si>
   <si>
-    <t>水</t>
-  </si>
-  <si>
     <t>2020.02.02</t>
-  </si>
-  <si>
-    <t>木</t>
   </si>
   <si>
     <t>B-1</t>
@@ -488,14 +476,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -529,13 +517,14 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="F2" t="str">
+        <f>TEXT(DATEVALUE(SUBSTITUTE(A2,".","/")),"aaa")</f>
+        <v>水</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>202001</v>
@@ -549,19 +538,20 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
+      <c r="F3" t="str">
+        <f>TEXT(DATEVALUE(SUBSTITUTE(A3,".","/")),"aaa")</f>
+        <v>木</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>202002</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -569,19 +559,20 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
+      <c r="F4" t="str">
+        <f>TEXT(DATEVALUE(SUBSTITUTE(A4,".","/")),"aaa")</f>
+        <v>土</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>202002</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -589,8 +580,9 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
+      <c r="F5" t="str">
+        <f>TEXT(DATEVALUE(SUBSTITUTE(A5,".","/")),"aaa")</f>
+        <v>日</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -601,156 +593,164 @@
         <v>202001</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="F6" t="str">
+        <f>TEXT(DATEVALUE(SUBSTITUTE(A6,".","/")),"aaa")</f>
+        <v>水</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>202001</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="F7" t="str">
+        <f>TEXT(DATEVALUE(SUBSTITUTE(A7,".","/")),"aaa")</f>
+        <v>木</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>202002</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
         <v>13</v>
+      </c>
+      <c r="F8" t="str">
+        <f>TEXT(DATEVALUE(SUBSTITUTE(A8,".","/")),"aaa")</f>
+        <v>土</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>202002</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F9" t="str">
+        <f>TEXT(DATEVALUE(SUBSTITUTE(A9,".","/")),"aaa")</f>
+        <v>日</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>202001</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="F10" t="str">
+        <f>TEXT(DATEVALUE(SUBSTITUTE(A10,".","/")),"aaa")</f>
+        <v>木</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>202001</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F11" t="str">
+        <f>TEXT(DATEVALUE(SUBSTITUTE(A11,".","/")),"aaa")</f>
+        <v>金</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>202002</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="F12" t="str">
+        <f>TEXT(DATEVALUE(SUBSTITUTE(A12,".","/")),"aaa")</f>
+        <v>木</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>202002</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F13" t="str">
+        <f>TEXT(DATEVALUE(SUBSTITUTE(A13,".","/")),"aaa")</f>
+        <v>金</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mn/github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2C5925-39B6-3945-A24B-28AD35F20B3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5A4E82-6664-9746-BB39-AF41C796978A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8140" yWindow="6680" windowWidth="22800" windowHeight="12320" xr2:uid="{FB5A3823-9E24-1A44-A648-032B2308EC34}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -518,7 +518,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="str">
-        <f>TEXT(DATEVALUE(SUBSTITUTE(A2,".","/")),"aaa")</f>
+        <f t="shared" ref="F2:F13" si="0">TEXT(DATEVALUE(SUBSTITUTE(A2,".","/")),"aaa")</f>
         <v>水</v>
       </c>
     </row>
@@ -539,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="str">
-        <f>TEXT(DATEVALUE(SUBSTITUTE(A3,".","/")),"aaa")</f>
+        <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="str">
-        <f>TEXT(DATEVALUE(SUBSTITUTE(A4,".","/")),"aaa")</f>
+        <f t="shared" si="0"/>
         <v>土</v>
       </c>
     </row>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="str">
-        <f>TEXT(DATEVALUE(SUBSTITUTE(A5,".","/")),"aaa")</f>
+        <f t="shared" si="0"/>
         <v>日</v>
       </c>
     </row>
@@ -602,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="str">
-        <f>TEXT(DATEVALUE(SUBSTITUTE(A6,".","/")),"aaa")</f>
+        <f t="shared" si="0"/>
         <v>水</v>
       </c>
     </row>
@@ -623,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="str">
-        <f>TEXT(DATEVALUE(SUBSTITUTE(A7,".","/")),"aaa")</f>
+        <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
@@ -644,7 +644,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="str">
-        <f>TEXT(DATEVALUE(SUBSTITUTE(A8,".","/")),"aaa")</f>
+        <f t="shared" si="0"/>
         <v>土</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="str">
-        <f>TEXT(DATEVALUE(SUBSTITUTE(A9,".","/")),"aaa")</f>
+        <f t="shared" si="0"/>
         <v>日</v>
       </c>
     </row>
@@ -686,7 +686,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="str">
-        <f>TEXT(DATEVALUE(SUBSTITUTE(A10,".","/")),"aaa")</f>
+        <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
@@ -707,7 +707,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="str">
-        <f>TEXT(DATEVALUE(SUBSTITUTE(A11,".","/")),"aaa")</f>
+        <f t="shared" si="0"/>
         <v>金</v>
       </c>
     </row>
@@ -716,7 +716,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>202002</v>
+        <v>202001</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -728,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="str">
-        <f>TEXT(DATEVALUE(SUBSTITUTE(A12,".","/")),"aaa")</f>
+        <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
@@ -737,7 +737,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>202002</v>
+        <v>202001</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -749,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="str">
-        <f>TEXT(DATEVALUE(SUBSTITUTE(A13,".","/")),"aaa")</f>
+        <f t="shared" si="0"/>
         <v>金</v>
       </c>
     </row>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mn/github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5A4E82-6664-9746-BB39-AF41C796978A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C966909-029A-7049-B44F-E550C277BA6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="6680" windowWidth="22800" windowHeight="12320" xr2:uid="{FB5A3823-9E24-1A44-A648-032B2308EC34}"/>
+    <workbookView xWindow="7700" yWindow="5480" windowWidth="22800" windowHeight="12320" activeTab="1" xr2:uid="{FB5A3823-9E24-1A44-A648-032B2308EC34}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="1" r:id="rId1"/>
+    <sheet name="fusionchart" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -475,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106B6102-85FB-E144-868C-B4E634643DE8}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -758,4 +759,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E4FB65-65B2-A14E-A43A-80E317A40ED9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>